--- a/07_Templates/06_Effort Estimation/EffortEstimation.xlsx
+++ b/07_Templates/06_Effort Estimation/EffortEstimation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Florian\3.Klasse\SYP\if.05.61_01-project-repository\07_Templates\06_Effort Estimation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D192697C-2B72-4511-B943-A6D06AF241AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71E4E71-3CE0-45D1-94FC-0A488D638B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{22017C2C-4C73-49B3-929E-53493B14A2DD}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{22017C2C-4C73-49B3-929E-53493B14A2DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,6 +546,16 @@
       <c r="B8">
         <v>8</v>
       </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <f>C8-D8</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -567,6 +577,16 @@
       <c r="B11">
         <v>3</v>
       </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <f>C11-D11</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -595,6 +615,16 @@
       </c>
       <c r="B15">
         <v>3</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15" si="0">B15-D15</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
